--- a/2019成绩.xlsx
+++ b/2019成绩.xlsx
@@ -1303,10 +1303,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>2020</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -1315,6 +1311,10 @@
   </si>
   <si>
     <t>周炜晨</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2325,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2414,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -2436,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -2458,7 +2458,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -2502,7 +2502,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -2524,7 +2524,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -2546,7 +2546,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
@@ -2854,7 +2854,7 @@
         <v>83</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -3470,7 +3470,7 @@
         <v>170</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
@@ -3536,7 +3536,7 @@
         <v>179</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
@@ -3929,10 +3929,10 @@
         <v>232</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">

--- a/2019成绩.xlsx
+++ b/2019成绩.xlsx
@@ -1227,14 +1227,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -1315,6 +1307,14 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1708,6 +1708,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1968,7 +1974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2000,6 +2006,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2325,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2429,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -2436,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -2458,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -2502,7 +2517,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
@@ -2524,7 +2539,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -2546,7 +2561,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
@@ -2854,7 +2869,7 @@
         <v>83</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -3470,7 +3485,7 @@
         <v>170</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
@@ -3536,7 +3551,7 @@
         <v>179</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
@@ -3595,20 +3610,20 @@
       <c r="A63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
+      <c r="D63" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H63" s="5"/>
@@ -3664,17 +3679,17 @@
       <c r="B66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
+      <c r="D66" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H66" s="5"/>
@@ -3734,7 +3749,7 @@
         <v>206</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
@@ -3778,7 +3793,7 @@
         <v>212</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
@@ -3910,7 +3925,7 @@
         <v>230</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5" t="s">
@@ -3929,10 +3944,10 @@
         <v>232</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5" t="s">
@@ -3976,7 +3991,7 @@
         <v>239</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5" t="s">
@@ -4020,7 +4035,7 @@
         <v>246</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5" t="s">

--- a/2019成绩.xlsx
+++ b/2019成绩.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微云同步助手\383487353\工作\教学\微机原理及单片机应用\我的课件\Microcomputer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微云同步助手\383487353\mywork\教学\微机原理及单片机应用\我的课件\Microcomputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="344">
   <si>
     <t>中国海洋大学上课班级选课学生</t>
   </si>
@@ -1020,10 +1020,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -1295,13 +1291,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>周炜晨</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -1315,6 +1304,486 @@
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业成绩合计</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1322,6 +1791,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1974,7 +2447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,19 +2475,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2338,10 +2829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2350,49 +2841,50 @@
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2408,17 +2900,20 @@
       <c r="E8" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2428,19 +2923,25 @@
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="19">
+        <f>D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2450,19 +2951,25 @@
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" ref="F10:F73" si="0">D10+E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2472,19 +2979,25 @@
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2494,19 +3007,25 @@
       <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -2516,19 +3035,25 @@
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -2538,19 +3063,25 @@
       <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -2560,19 +3091,25 @@
       <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -2582,19 +3119,25 @@
       <c r="C16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -2604,19 +3147,25 @@
       <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -2626,19 +3175,25 @@
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -2648,19 +3203,25 @@
       <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -2670,19 +3231,25 @@
       <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -2692,19 +3259,25 @@
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -2714,19 +3287,25 @@
       <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -2736,19 +3315,25 @@
       <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
@@ -2758,19 +3343,25 @@
       <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
@@ -2780,19 +3371,25 @@
       <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>72</v>
       </c>
@@ -2802,19 +3399,25 @@
       <c r="C26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
@@ -2824,19 +3427,25 @@
       <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
@@ -2846,19 +3455,25 @@
       <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -2868,19 +3483,25 @@
       <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -2890,19 +3511,25 @@
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
+      <c r="E30" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
@@ -2912,19 +3539,25 @@
       <c r="C31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="E31" s="14">
+        <v>15</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -2934,19 +3567,25 @@
       <c r="C32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="D32" s="14">
+        <v>12</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>94</v>
       </c>
@@ -2956,19 +3595,25 @@
       <c r="C33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
@@ -2978,19 +3623,25 @@
       <c r="C34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="D34" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -3000,19 +3651,25 @@
       <c r="C35" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
+      <c r="D35" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
@@ -3022,19 +3679,25 @@
       <c r="C36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
+      <c r="D36" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>108</v>
       </c>
@@ -3044,19 +3707,25 @@
       <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
+      <c r="D37" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -3066,19 +3735,25 @@
       <c r="C38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
+      <c r="D38" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>114</v>
       </c>
@@ -3088,19 +3763,25 @@
       <c r="C39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -3110,19 +3791,25 @@
       <c r="C40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
+      <c r="D40" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F40" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
@@ -3132,19 +3819,25 @@
       <c r="C41" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
+      <c r="D41" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>123</v>
       </c>
@@ -3154,19 +3847,25 @@
       <c r="C42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
+      <c r="D42" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>126</v>
       </c>
@@ -3176,19 +3875,25 @@
       <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
+      <c r="D43" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
@@ -3198,19 +3903,25 @@
       <c r="C44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
+      <c r="D44" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>132</v>
       </c>
@@ -3220,19 +3931,25 @@
       <c r="C45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
+      <c r="D45" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>135</v>
       </c>
@@ -3242,21 +3959,27 @@
       <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>138</v>
@@ -3264,19 +3987,25 @@
       <c r="C47" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>140</v>
       </c>
@@ -3286,41 +4015,53 @@
       <c r="C48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
+      <c r="E48" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5" t="s">
+      <c r="D49" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>146</v>
       </c>
@@ -3330,19 +4071,25 @@
       <c r="C50" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
+      <c r="D50" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>150</v>
       </c>
@@ -3352,19 +4099,25 @@
       <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="D51" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>153</v>
       </c>
@@ -3374,19 +4127,25 @@
       <c r="C52" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>156</v>
       </c>
@@ -3396,19 +4155,25 @@
       <c r="C53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
+      <c r="D53" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F53" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>159</v>
       </c>
@@ -3418,19 +4183,25 @@
       <c r="C54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
+      <c r="D54" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F54" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>162</v>
       </c>
@@ -3440,19 +4211,25 @@
       <c r="C55" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
+      <c r="D55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" s="19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>165</v>
       </c>
@@ -3462,19 +4239,25 @@
       <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
+      <c r="D56" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56" s="19">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>168</v>
       </c>
@@ -3484,19 +4267,25 @@
       <c r="C57" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
+      <c r="D57" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F57" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>171</v>
       </c>
@@ -3506,19 +4295,25 @@
       <c r="C58" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5" t="s">
+      <c r="D58" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>174</v>
       </c>
@@ -3528,19 +4323,25 @@
       <c r="C59" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5" t="s">
+      <c r="D59" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F59" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>177</v>
       </c>
@@ -3550,19 +4351,25 @@
       <c r="C60" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5" t="s">
+      <c r="D60" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>180</v>
       </c>
@@ -3572,19 +4379,25 @@
       <c r="C61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>183</v>
       </c>
@@ -3594,41 +4407,53 @@
       <c r="C62" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
+      <c r="D62" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="D63" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F63" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="H63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>189</v>
       </c>
@@ -3638,19 +4463,25 @@
       <c r="C64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
+      <c r="D64" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>192</v>
       </c>
@@ -3660,41 +4491,53 @@
       <c r="C65" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
+      <c r="D65" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
+      <c r="D66" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" s="19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="H66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>198</v>
       </c>
@@ -3704,19 +4547,25 @@
       <c r="C67" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
+      <c r="E67" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F67" s="19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>201</v>
       </c>
@@ -3726,19 +4575,25 @@
       <c r="C68" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
+      <c r="D68" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F68" s="19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>204</v>
       </c>
@@ -3748,19 +4603,25 @@
       <c r="C69" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5" t="s">
+      <c r="D69" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F69" s="19">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>207</v>
       </c>
@@ -3770,19 +4631,25 @@
       <c r="C70" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
+      <c r="D70" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F70" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>210</v>
       </c>
@@ -3792,19 +4659,25 @@
       <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
+      <c r="D71" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F71" s="19">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="H71" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>213</v>
       </c>
@@ -3814,19 +4687,25 @@
       <c r="C72" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
+      <c r="D72" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F72" s="19">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>216</v>
       </c>
@@ -3836,19 +4715,25 @@
       <c r="C73" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5" t="s">
+      <c r="E73" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F73" s="19">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>219</v>
       </c>
@@ -3858,19 +4743,25 @@
       <c r="C74" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5" t="s">
+      <c r="D74" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="19">
+        <f t="shared" ref="F74:F85" si="1">D74+E74</f>
+        <v>38</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>222</v>
       </c>
@@ -3880,19 +4771,25 @@
       <c r="C75" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5" t="s">
+      <c r="D75" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" s="19">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>225</v>
       </c>
@@ -3902,19 +4799,25 @@
       <c r="C76" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
+      <c r="D76" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F76" s="19">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>228</v>
       </c>
@@ -3924,19 +4827,25 @@
       <c r="C77" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
+      <c r="D77" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F77" s="19">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>231</v>
       </c>
@@ -3944,21 +4853,27 @@
         <v>232</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F78" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>233</v>
       </c>
@@ -3968,19 +4883,25 @@
       <c r="C79" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5" t="s">
+      <c r="D79" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="19">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>237</v>
       </c>
@@ -3990,19 +4911,25 @@
       <c r="C80" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5" t="s">
+      <c r="D80" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" s="19">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>240</v>
       </c>
@@ -4012,19 +4939,25 @@
       <c r="C81" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5" t="s">
+      <c r="D81" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F81" s="19">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>244</v>
       </c>
@@ -4034,19 +4967,25 @@
       <c r="C82" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5" t="s">
+      <c r="D82" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F82" s="19">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>248</v>
       </c>
@@ -4056,19 +4995,25 @@
       <c r="C83" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5" t="s">
+      <c r="E83" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F83" s="19">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>252</v>
       </c>
@@ -4078,19 +5023,25 @@
       <c r="C84" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5" t="s">
+      <c r="E84" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F84" s="19">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>256</v>
       </c>
@@ -4100,17 +5051,23 @@
       <c r="C85" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5" t="s">
+      <c r="E85" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F85" s="19">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="5"/>
+      <c r="H85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/2019成绩.xlsx
+++ b/2019成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="343">
   <si>
     <t>中国海洋大学上课班级选课学生</t>
   </si>
@@ -806,23 +806,6 @@
   </si>
   <si>
     <t>单片机课设成绩</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -2831,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2901,7 +2884,7 @@
         <v>261</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>10</v>
@@ -2924,10 +2907,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="19">
         <f>D9+E9</f>
@@ -2952,10 +2935,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" ref="F10:F73" si="0">D10+E10</f>
@@ -2980,10 +2963,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
@@ -3008,10 +2991,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="0"/>
@@ -3036,10 +3019,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="0"/>
@@ -3064,10 +3047,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="0"/>
@@ -3092,10 +3075,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" s="19">
         <f t="shared" si="0"/>
@@ -3120,10 +3103,10 @@
         <v>43</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F16" s="19">
         <f t="shared" si="0"/>
@@ -3148,10 +3131,10 @@
         <v>46</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="19">
         <f t="shared" si="0"/>
@@ -3176,10 +3159,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F18" s="19">
         <f t="shared" si="0"/>
@@ -3204,10 +3187,10 @@
         <v>52</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
@@ -3232,10 +3215,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F20" s="19">
         <f t="shared" si="0"/>
@@ -3260,10 +3243,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="0"/>
@@ -3288,10 +3271,10 @@
         <v>61</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" s="19">
         <f t="shared" si="0"/>
@@ -3316,10 +3299,10 @@
         <v>64</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F23" s="19">
         <f t="shared" si="0"/>
@@ -3344,10 +3327,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24" s="19">
         <f t="shared" si="0"/>
@@ -3372,10 +3355,10 @@
         <v>70</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F25" s="19">
         <f t="shared" si="0"/>
@@ -3400,10 +3383,10 @@
         <v>74</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F26" s="19">
         <f t="shared" si="0"/>
@@ -3428,10 +3411,10 @@
         <v>77</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" s="19">
         <f t="shared" si="0"/>
@@ -3456,10 +3439,10 @@
         <v>80</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F28" s="19">
         <f t="shared" si="0"/>
@@ -3484,10 +3467,10 @@
         <v>83</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F29" s="19">
         <f t="shared" si="0"/>
@@ -3511,15 +3494,15 @@
       <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>262</v>
+      <c r="D30" s="14">
+        <v>15</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F30" s="19">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>71</v>
@@ -3540,7 +3523,7 @@
         <v>90</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E31" s="14">
         <v>15</v>
@@ -3571,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F32" s="19">
         <f t="shared" si="0"/>
@@ -3596,10 +3579,10 @@
         <v>96</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F33" s="19">
         <f t="shared" si="0"/>
@@ -3624,10 +3607,10 @@
         <v>99</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F34" s="19">
         <f t="shared" si="0"/>
@@ -3652,10 +3635,10 @@
         <v>102</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F35" s="19">
         <f t="shared" si="0"/>
@@ -3680,10 +3663,10 @@
         <v>106</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F36" s="19">
         <f t="shared" si="0"/>
@@ -3708,10 +3691,10 @@
         <v>110</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F37" s="19">
         <f t="shared" si="0"/>
@@ -3736,10 +3719,10 @@
         <v>113</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F38" s="19">
         <f t="shared" si="0"/>
@@ -3764,10 +3747,10 @@
         <v>116</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F39" s="19">
         <f t="shared" si="0"/>
@@ -3792,10 +3775,10 @@
         <v>119</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F40" s="19">
         <f t="shared" si="0"/>
@@ -3820,10 +3803,10 @@
         <v>122</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F41" s="19">
         <f t="shared" si="0"/>
@@ -3848,10 +3831,10 @@
         <v>125</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F42" s="19">
         <f t="shared" si="0"/>
@@ -3876,10 +3859,10 @@
         <v>128</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="19">
         <f t="shared" si="0"/>
@@ -3904,10 +3887,10 @@
         <v>131</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F44" s="19">
         <f t="shared" si="0"/>
@@ -3932,10 +3915,10 @@
         <v>134</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F45" s="19">
         <f t="shared" si="0"/>
@@ -3960,10 +3943,10 @@
         <v>137</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F46" s="19">
         <f t="shared" si="0"/>
@@ -3979,7 +3962,7 @@
     </row>
     <row r="47" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>138</v>
@@ -3988,10 +3971,10 @@
         <v>139</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F47" s="19">
         <f t="shared" si="0"/>
@@ -4016,10 +3999,10 @@
         <v>142</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F48" s="19">
         <f t="shared" si="0"/>
@@ -4044,10 +4027,10 @@
         <v>145</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F49" s="19">
         <f t="shared" si="0"/>
@@ -4072,10 +4055,10 @@
         <v>148</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F50" s="19">
         <f t="shared" si="0"/>
@@ -4100,10 +4083,10 @@
         <v>152</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F51" s="19">
         <f t="shared" si="0"/>
@@ -4128,10 +4111,10 @@
         <v>155</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F52" s="19">
         <f t="shared" si="0"/>
@@ -4156,10 +4139,10 @@
         <v>158</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F53" s="19">
         <f t="shared" si="0"/>
@@ -4184,10 +4167,10 @@
         <v>161</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F54" s="19">
         <f t="shared" si="0"/>
@@ -4212,10 +4195,10 @@
         <v>164</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F55" s="19">
         <f t="shared" si="0"/>
@@ -4240,10 +4223,10 @@
         <v>167</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F56" s="19">
         <f t="shared" si="0"/>
@@ -4268,10 +4251,10 @@
         <v>170</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F57" s="19">
         <f t="shared" si="0"/>
@@ -4296,10 +4279,10 @@
         <v>173</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F58" s="19">
         <f t="shared" si="0"/>
@@ -4324,10 +4307,10 @@
         <v>176</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F59" s="19">
         <f t="shared" si="0"/>
@@ -4352,10 +4335,10 @@
         <v>179</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F60" s="19">
         <f t="shared" si="0"/>
@@ -4380,10 +4363,10 @@
         <v>182</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F61" s="19">
         <f t="shared" si="0"/>
@@ -4408,10 +4391,10 @@
         <v>185</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F62" s="19">
         <f t="shared" si="0"/>
@@ -4436,10 +4419,10 @@
         <v>188</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F63" s="19">
         <f t="shared" si="0"/>
@@ -4464,10 +4447,10 @@
         <v>191</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F64" s="19">
         <f t="shared" si="0"/>
@@ -4492,10 +4475,10 @@
         <v>194</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F65" s="19">
         <f t="shared" si="0"/>
@@ -4520,10 +4503,10 @@
         <v>197</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F66" s="19">
         <f t="shared" si="0"/>
@@ -4548,10 +4531,10 @@
         <v>200</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F67" s="19">
         <f t="shared" si="0"/>
@@ -4576,10 +4559,10 @@
         <v>203</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F68" s="19">
         <f t="shared" si="0"/>
@@ -4604,10 +4587,10 @@
         <v>206</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F69" s="19">
         <f t="shared" si="0"/>
@@ -4632,10 +4615,10 @@
         <v>209</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F70" s="19">
         <f t="shared" si="0"/>
@@ -4660,10 +4643,10 @@
         <v>212</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F71" s="19">
         <f t="shared" si="0"/>
@@ -4688,10 +4671,10 @@
         <v>215</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F72" s="19">
         <f t="shared" si="0"/>
@@ -4716,10 +4699,10 @@
         <v>218</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F73" s="19">
         <f t="shared" si="0"/>
@@ -4744,10 +4727,10 @@
         <v>221</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F74" s="19">
         <f t="shared" ref="F74:F85" si="1">D74+E74</f>
@@ -4772,10 +4755,10 @@
         <v>224</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F75" s="19">
         <f t="shared" si="1"/>
@@ -4800,10 +4783,10 @@
         <v>227</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F76" s="19">
         <f t="shared" si="1"/>
@@ -4828,10 +4811,10 @@
         <v>230</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F77" s="19">
         <f t="shared" si="1"/>
@@ -4853,13 +4836,13 @@
         <v>232</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F78" s="19">
         <f t="shared" si="1"/>
@@ -4884,10 +4867,10 @@
         <v>235</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F79" s="19">
         <f t="shared" si="1"/>
@@ -4912,10 +4895,10 @@
         <v>239</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F80" s="19">
         <f t="shared" si="1"/>
@@ -4940,10 +4923,10 @@
         <v>242</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F81" s="19">
         <f t="shared" si="1"/>
@@ -4968,10 +4951,10 @@
         <v>246</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F82" s="19">
         <f t="shared" si="1"/>
@@ -4996,10 +4979,10 @@
         <v>250</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F83" s="19">
         <f t="shared" si="1"/>
@@ -5024,10 +5007,10 @@
         <v>254</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F84" s="19">
         <f t="shared" si="1"/>
@@ -5052,10 +5035,10 @@
         <v>258</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F85" s="19">
         <f t="shared" si="1"/>

--- a/2019成绩.xlsx
+++ b/2019成绩.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微云同步助手\383487353\mywork\教学\微机原理及单片机应用\我的课件\Microcomputer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微云同步助手\383487353\mywork\Teaching\微机原理及单片机应用\我的课件\Microcomputer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="346">
   <si>
     <t>中国海洋大学上课班级选课学生</t>
   </si>
@@ -1769,14 +1769,27 @@
     <t>作业成绩合计</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <t>考试成绩</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合成绩</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺考</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -2430,7 +2443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2489,6 +2502,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2812,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2824,50 +2840,51 @@
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="18" customWidth="1"/>
-    <col min="7" max="7" width="26.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="10.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
+    <col min="7" max="8" width="7.875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -2886,17 +2903,23 @@
       <c r="F8" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2916,15 +2939,22 @@
         <f>D9+E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="20" t="e">
+        <f t="shared" ref="H9:H11" si="0">F9+G9*0.6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2941,18 +2971,25 @@
         <v>330</v>
       </c>
       <c r="F10" s="19">
-        <f t="shared" ref="F10:F73" si="0">D10+E10</f>
+        <f t="shared" ref="F10:F73" si="1">D10+E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="19">
+        <v>16</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2969,18 +3006,25 @@
         <v>327</v>
       </c>
       <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2997,18 +3041,25 @@
         <v>301</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="19">
+        <v>64</v>
+      </c>
+      <c r="H12" s="20">
+        <f>F12+G12*0.6</f>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -3025,18 +3076,25 @@
         <v>329</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="19">
+        <v>20</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" ref="H13:H76" si="2">F13+G13*0.6</f>
+        <v>12</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -3053,18 +3111,25 @@
         <v>329</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="19">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3081,18 +3146,25 @@
         <v>331</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="19">
+        <v>23</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="2"/>
+        <v>13.799999999999999</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -3109,18 +3181,25 @@
         <v>303</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="19">
+        <v>26</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="2"/>
+        <v>49.6</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -3137,18 +3216,25 @@
         <v>303</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="19">
+        <v>44</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="2"/>
+        <v>60.4</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -3165,18 +3251,25 @@
         <v>304</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -3193,18 +3286,25 @@
         <v>338</v>
       </c>
       <c r="F19" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="19">
+        <v>55</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -3221,18 +3321,25 @@
         <v>303</v>
       </c>
       <c r="F20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="19">
+        <v>57</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="2"/>
+        <v>68.199999999999989</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -3249,18 +3356,25 @@
         <v>340</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="19">
+        <v>51</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="2"/>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -3277,18 +3391,25 @@
         <v>339</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="19">
+        <v>55</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3305,18 +3426,25 @@
         <v>339</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="19">
+        <v>51</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="2"/>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
@@ -3333,18 +3461,25 @@
         <v>338</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="19">
+        <v>54</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="2"/>
+        <v>61.4</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>68</v>
       </c>
@@ -3361,18 +3496,25 @@
         <v>302</v>
       </c>
       <c r="F25" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="19">
+        <v>56</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="2"/>
+        <v>60.6</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>72</v>
       </c>
@@ -3389,18 +3531,25 @@
         <v>307</v>
       </c>
       <c r="F26" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="19">
+        <v>61</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="2"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
@@ -3417,18 +3566,25 @@
         <v>306</v>
       </c>
       <c r="F27" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="19">
+        <v>66</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="2"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
@@ -3445,18 +3601,25 @@
         <v>305</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="19">
+        <v>40</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -3473,18 +3636,25 @@
         <v>329</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="19">
+        <v>10</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>85</v>
       </c>
@@ -3501,18 +3671,25 @@
         <v>335</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>88</v>
       </c>
@@ -3529,18 +3706,25 @@
         <v>15</v>
       </c>
       <c r="F31" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="19">
+        <v>57</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="2"/>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -3557,18 +3741,25 @@
         <v>304</v>
       </c>
       <c r="F32" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="19">
+        <v>61</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="2"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>94</v>
       </c>
@@ -3585,18 +3776,25 @@
         <v>306</v>
       </c>
       <c r="F33" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="19">
+        <v>43</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="2"/>
+        <v>54.8</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
@@ -3613,18 +3811,25 @@
         <v>308</v>
       </c>
       <c r="F34" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="19">
+        <v>41</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="2"/>
+        <v>54.599999999999994</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>100</v>
       </c>
@@ -3641,18 +3846,25 @@
         <v>337</v>
       </c>
       <c r="F35" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="19">
+        <v>32</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
@@ -3669,18 +3881,25 @@
         <v>310</v>
       </c>
       <c r="F36" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="19">
+        <v>76</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="2"/>
+        <v>83.6</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>108</v>
       </c>
@@ -3697,18 +3916,25 @@
         <v>308</v>
       </c>
       <c r="F37" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="19">
+        <v>71</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="2"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -3725,18 +3951,25 @@
         <v>309</v>
       </c>
       <c r="F38" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="19">
+        <v>90</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>114</v>
       </c>
@@ -3753,18 +3986,25 @@
         <v>303</v>
       </c>
       <c r="F39" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="19">
+        <v>26</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="2"/>
+        <v>49.6</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -3781,18 +4021,25 @@
         <v>311</v>
       </c>
       <c r="F40" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="19">
+        <v>48</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="2"/>
+        <v>62.8</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
@@ -3809,18 +4056,25 @@
         <v>323</v>
       </c>
       <c r="F41" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="19">
+        <v>63</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="2"/>
+        <v>74.8</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>123</v>
       </c>
@@ -3837,18 +4091,25 @@
         <v>312</v>
       </c>
       <c r="F42" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="19">
+        <v>93</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="2"/>
+        <v>93.8</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>126</v>
       </c>
@@ -3865,18 +4126,25 @@
         <v>308</v>
       </c>
       <c r="F43" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="19">
+        <v>57</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="2"/>
+        <v>72.199999999999989</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>129</v>
       </c>
@@ -3893,18 +4161,25 @@
         <v>305</v>
       </c>
       <c r="F44" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="19">
+        <v>86</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="2"/>
+        <v>89.6</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>132</v>
       </c>
@@ -3921,18 +4196,25 @@
         <v>303</v>
       </c>
       <c r="F45" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="19">
+        <v>43</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="2"/>
+        <v>59.8</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>135</v>
       </c>
@@ -3949,18 +4231,25 @@
         <v>336</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="19">
+        <v>56</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="2"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>285</v>
       </c>
@@ -3977,18 +4266,25 @@
         <v>341</v>
       </c>
       <c r="F47" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="19">
+        <v>38</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="2"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>140</v>
       </c>
@@ -4005,18 +4301,25 @@
         <v>336</v>
       </c>
       <c r="F48" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="19">
+        <v>36</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="2"/>
+        <v>54.599999999999994</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>143</v>
       </c>
@@ -4033,18 +4336,25 @@
         <v>341</v>
       </c>
       <c r="F49" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="19">
+        <v>34</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="2"/>
+        <v>35.4</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>146</v>
       </c>
@@ -4061,18 +4371,25 @@
         <v>313</v>
       </c>
       <c r="F50" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="19">
+        <v>63</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="2"/>
+        <v>65.8</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>150</v>
       </c>
@@ -4089,18 +4406,25 @@
         <v>314</v>
       </c>
       <c r="F51" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="19">
+        <v>45</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>153</v>
       </c>
@@ -4117,18 +4441,25 @@
         <v>305</v>
       </c>
       <c r="F52" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="19">
+        <v>96</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="2"/>
+        <v>92.6</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>156</v>
       </c>
@@ -4145,18 +4476,25 @@
         <v>335</v>
       </c>
       <c r="F53" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="19">
+        <v>65</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>159</v>
       </c>
@@ -4173,18 +4511,25 @@
         <v>317</v>
       </c>
       <c r="F54" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="19">
+        <v>52</v>
+      </c>
+      <c r="H54" s="20">
+        <f t="shared" si="2"/>
+        <v>69.2</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>162</v>
       </c>
@@ -4201,18 +4546,25 @@
         <v>325</v>
       </c>
       <c r="F55" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="19">
+        <v>49</v>
+      </c>
+      <c r="H55" s="20">
+        <f t="shared" si="2"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>165</v>
       </c>
@@ -4229,18 +4581,25 @@
         <v>326</v>
       </c>
       <c r="F56" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="19">
+        <v>55</v>
+      </c>
+      <c r="H56" s="20">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>168</v>
       </c>
@@ -4257,18 +4616,25 @@
         <v>333</v>
       </c>
       <c r="F57" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="19">
+        <v>4</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>171</v>
       </c>
@@ -4285,18 +4651,25 @@
         <v>304</v>
       </c>
       <c r="F58" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="19">
+        <v>48</v>
+      </c>
+      <c r="H58" s="20">
+        <f t="shared" si="2"/>
+        <v>66.8</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>174</v>
       </c>
@@ -4313,18 +4686,25 @@
         <v>310</v>
       </c>
       <c r="F59" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="19">
+        <v>90</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>177</v>
       </c>
@@ -4341,18 +4721,25 @@
         <v>308</v>
       </c>
       <c r="F60" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="19">
+        <v>96</v>
+      </c>
+      <c r="H60" s="20">
+        <f t="shared" si="2"/>
+        <v>95.6</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>180</v>
       </c>
@@ -4369,18 +4756,25 @@
         <v>335</v>
       </c>
       <c r="F61" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="19">
+        <v>16</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="2"/>
+        <v>41.6</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>183</v>
       </c>
@@ -4397,18 +4791,25 @@
         <v>316</v>
       </c>
       <c r="F62" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="19">
+        <v>61</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="2"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>186</v>
       </c>
@@ -4425,18 +4826,25 @@
         <v>318</v>
       </c>
       <c r="F63" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="19">
+        <v>73</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="2"/>
+        <v>73.8</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="J63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>189</v>
       </c>
@@ -4453,18 +4861,25 @@
         <v>305</v>
       </c>
       <c r="F64" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="19">
+        <v>89</v>
+      </c>
+      <c r="H64" s="20">
+        <f t="shared" si="2"/>
+        <v>91.4</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>192</v>
       </c>
@@ -4481,18 +4896,25 @@
         <v>305</v>
       </c>
       <c r="F65" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="19">
+        <v>64</v>
+      </c>
+      <c r="H65" s="20">
+        <f t="shared" si="2"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="J65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>195</v>
       </c>
@@ -4509,18 +4931,25 @@
         <v>318</v>
       </c>
       <c r="F66" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="19">
+        <v>57</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="2"/>
+        <v>64.199999999999989</v>
+      </c>
+      <c r="I66" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="10" t="s">
+      <c r="J66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>198</v>
       </c>
@@ -4537,18 +4966,25 @@
         <v>308</v>
       </c>
       <c r="F67" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="19">
+        <v>44</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" si="2"/>
+        <v>61.4</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="J67" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>201</v>
       </c>
@@ -4565,18 +5001,25 @@
         <v>308</v>
       </c>
       <c r="F68" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="19">
+        <v>49</v>
+      </c>
+      <c r="H68" s="20">
+        <f t="shared" si="2"/>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>204</v>
       </c>
@@ -4593,18 +5036,25 @@
         <v>323</v>
       </c>
       <c r="F69" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="19">
+        <v>57</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" si="2"/>
+        <v>65.199999999999989</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="J69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>207</v>
       </c>
@@ -4621,18 +5071,25 @@
         <v>319</v>
       </c>
       <c r="F70" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="19">
+        <v>51</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="2"/>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="J70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>210</v>
       </c>
@@ -4649,18 +5106,25 @@
         <v>322</v>
       </c>
       <c r="F71" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="19">
+        <v>45</v>
+      </c>
+      <c r="H71" s="20">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="J71" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>213</v>
       </c>
@@ -4677,18 +5141,25 @@
         <v>319</v>
       </c>
       <c r="F72" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="19">
+        <v>87</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" si="2"/>
+        <v>86.199999999999989</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="J72" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>216</v>
       </c>
@@ -4705,18 +5176,25 @@
         <v>305</v>
       </c>
       <c r="F73" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="19">
+        <v>68</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="2"/>
+        <v>75.3</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="J73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>219</v>
       </c>
@@ -4733,18 +5211,25 @@
         <v>320</v>
       </c>
       <c r="F74" s="19">
-        <f t="shared" ref="F74:F85" si="1">D74+E74</f>
+        <f t="shared" ref="F74:F85" si="3">D74+E74</f>
         <v>38</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="19">
+        <v>78</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="2"/>
+        <v>84.8</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="J74" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>222</v>
       </c>
@@ -4761,18 +5246,25 @@
         <v>299</v>
       </c>
       <c r="F75" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="19">
+        <v>24</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="2"/>
+        <v>48.4</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="J75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>225</v>
       </c>
@@ -4789,18 +5281,25 @@
         <v>325</v>
       </c>
       <c r="F76" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="19">
+        <v>86</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="2"/>
+        <v>88.6</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="J76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>228</v>
       </c>
@@ -4817,18 +5316,25 @@
         <v>321</v>
       </c>
       <c r="F77" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="19">
+        <v>92</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" ref="H77:H85" si="4">F77+G77*0.6</f>
+        <v>92.199999999999989</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="J77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>231</v>
       </c>
@@ -4845,18 +5351,25 @@
         <v>327</v>
       </c>
       <c r="F78" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="19">
+        <v>10</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="J78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>233</v>
       </c>
@@ -4873,18 +5386,25 @@
         <v>322</v>
       </c>
       <c r="F79" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="19">
+        <v>61</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="4"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="J79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>237</v>
       </c>
@@ -4901,18 +5421,25 @@
         <v>322</v>
       </c>
       <c r="F80" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="19">
+        <v>62</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="4"/>
+        <v>70.199999999999989</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>240</v>
       </c>
@@ -4929,18 +5456,25 @@
         <v>315</v>
       </c>
       <c r="F81" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="19">
+        <v>63</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="4"/>
+        <v>75.8</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="J81" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:11" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>244</v>
       </c>
@@ -4957,18 +5491,25 @@
         <v>324</v>
       </c>
       <c r="F82" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="19">
+        <v>94</v>
+      </c>
+      <c r="H82" s="20">
+        <f t="shared" si="4"/>
+        <v>89.4</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>248</v>
       </c>
@@ -4985,18 +5526,25 @@
         <v>323</v>
       </c>
       <c r="F83" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="19">
+        <v>15</v>
+      </c>
+      <c r="H83" s="20">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="J83" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>252</v>
       </c>
@@ -5013,18 +5561,25 @@
         <v>323</v>
       </c>
       <c r="F84" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="19">
+        <v>62</v>
+      </c>
+      <c r="H84" s="20">
+        <f t="shared" si="4"/>
+        <v>71.199999999999989</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="J84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>256</v>
       </c>
@@ -5041,16 +5596,23 @@
         <v>323</v>
       </c>
       <c r="F85" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="G85" s="19">
+        <v>66</v>
+      </c>
+      <c r="H85" s="20">
+        <f t="shared" si="4"/>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="J85" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="K85" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>

--- a/2019成绩.xlsx
+++ b/2019成绩.xlsx
@@ -1791,7 +1791,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,6 +1985,22 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2443,7 +2459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2504,7 +2520,19 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2830,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2839,10 +2867,11 @@
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="18" customWidth="1"/>
-    <col min="7" max="8" width="7.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="22" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" customWidth="1"/>
     <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
@@ -2906,7 +2935,7 @@
       <c r="G8" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="23" t="s">
         <v>344</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -2942,7 +2971,7 @@
       <c r="G9" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="H9" s="20" t="e">
+      <c r="H9" s="24" t="e">
         <f t="shared" ref="H9:H11" si="0">F9+G9*0.6</f>
         <v>#VALUE!</v>
       </c>
@@ -2977,7 +3006,7 @@
       <c r="G10" s="19">
         <v>16</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="24">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
@@ -3012,7 +3041,7 @@
       <c r="G11" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="H11" s="20" t="e">
+      <c r="H11" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
@@ -3047,7 +3076,7 @@
       <c r="G12" s="19">
         <v>64</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="24">
         <f>F12+G12*0.6</f>
         <v>65.400000000000006</v>
       </c>
@@ -3082,7 +3111,7 @@
       <c r="G13" s="19">
         <v>20</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="24">
         <f t="shared" ref="H13:H76" si="2">F13+G13*0.6</f>
         <v>12</v>
       </c>
@@ -3117,7 +3146,7 @@
       <c r="G14" s="19">
         <v>10</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -3152,7 +3181,7 @@
       <c r="G15" s="19">
         <v>23</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="24">
         <f t="shared" si="2"/>
         <v>13.799999999999999</v>
       </c>
@@ -3187,7 +3216,7 @@
       <c r="G16" s="19">
         <v>26</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="24">
         <f t="shared" si="2"/>
         <v>49.6</v>
       </c>
@@ -3222,7 +3251,7 @@
       <c r="G17" s="19">
         <v>44</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="24">
         <f t="shared" si="2"/>
         <v>60.4</v>
       </c>
@@ -3257,7 +3286,7 @@
       <c r="G18" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="H18" s="20" t="e">
+      <c r="H18" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -3292,7 +3321,7 @@
       <c r="G19" s="19">
         <v>55</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -3327,7 +3356,7 @@
       <c r="G20" s="19">
         <v>57</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="24">
         <f t="shared" si="2"/>
         <v>68.199999999999989</v>
       </c>
@@ -3362,7 +3391,7 @@
       <c r="G21" s="19">
         <v>51</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="24">
         <f t="shared" si="2"/>
         <v>59.599999999999994</v>
       </c>
@@ -3397,7 +3426,7 @@
       <c r="G22" s="19">
         <v>55</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="24">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -3432,7 +3461,7 @@
       <c r="G23" s="19">
         <v>51</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="24">
         <f t="shared" si="2"/>
         <v>59.599999999999994</v>
       </c>
@@ -3467,7 +3496,7 @@
       <c r="G24" s="19">
         <v>54</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="24">
         <f t="shared" si="2"/>
         <v>61.4</v>
       </c>
@@ -3502,7 +3531,7 @@
       <c r="G25" s="19">
         <v>56</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="24">
         <f t="shared" si="2"/>
         <v>60.6</v>
       </c>
@@ -3537,7 +3566,7 @@
       <c r="G26" s="19">
         <v>61</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="24">
         <f t="shared" si="2"/>
         <v>65.599999999999994</v>
       </c>
@@ -3572,7 +3601,7 @@
       <c r="G27" s="19">
         <v>66</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="24">
         <f t="shared" si="2"/>
         <v>68.599999999999994</v>
       </c>
@@ -3607,7 +3636,7 @@
       <c r="G28" s="19">
         <v>40</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="24">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -3642,7 +3671,7 @@
       <c r="G29" s="19">
         <v>10</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="24">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -3677,7 +3706,7 @@
       <c r="G30" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="H30" s="20" t="e">
+      <c r="H30" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
@@ -3712,7 +3741,7 @@
       <c r="G31" s="19">
         <v>57</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="24">
         <f t="shared" si="2"/>
         <v>61.199999999999996</v>
       </c>
@@ -3747,7 +3776,7 @@
       <c r="G32" s="19">
         <v>61</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="24">
         <f t="shared" si="2"/>
         <v>66.599999999999994</v>
       </c>
@@ -3782,7 +3811,7 @@
       <c r="G33" s="19">
         <v>43</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="24">
         <f t="shared" si="2"/>
         <v>54.8</v>
       </c>
@@ -3817,7 +3846,7 @@
       <c r="G34" s="19">
         <v>41</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="24">
         <f t="shared" si="2"/>
         <v>54.599999999999994</v>
       </c>
@@ -3830,10 +3859,10 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="21" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -3852,7 +3881,7 @@
       <c r="G35" s="19">
         <v>32</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="24">
         <f t="shared" si="2"/>
         <v>35.200000000000003</v>
       </c>
@@ -3887,7 +3916,7 @@
       <c r="G36" s="19">
         <v>76</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="24">
         <f t="shared" si="2"/>
         <v>83.6</v>
       </c>
@@ -3922,7 +3951,7 @@
       <c r="G37" s="19">
         <v>71</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="24">
         <f t="shared" si="2"/>
         <v>80.599999999999994</v>
       </c>
@@ -3957,7 +3986,7 @@
       <c r="G38" s="19">
         <v>90</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="24">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -3992,7 +4021,7 @@
       <c r="G39" s="19">
         <v>26</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="24">
         <f t="shared" si="2"/>
         <v>49.6</v>
       </c>
@@ -4027,7 +4056,7 @@
       <c r="G40" s="19">
         <v>48</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="24">
         <f t="shared" si="2"/>
         <v>62.8</v>
       </c>
@@ -4062,7 +4091,7 @@
       <c r="G41" s="19">
         <v>63</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="24">
         <f t="shared" si="2"/>
         <v>74.8</v>
       </c>
@@ -4097,7 +4126,7 @@
       <c r="G42" s="19">
         <v>93</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="24">
         <f t="shared" si="2"/>
         <v>93.8</v>
       </c>
@@ -4132,7 +4161,7 @@
       <c r="G43" s="19">
         <v>57</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="24">
         <f t="shared" si="2"/>
         <v>72.199999999999989</v>
       </c>
@@ -4167,7 +4196,7 @@
       <c r="G44" s="19">
         <v>86</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="24">
         <f t="shared" si="2"/>
         <v>89.6</v>
       </c>
@@ -4202,7 +4231,7 @@
       <c r="G45" s="19">
         <v>43</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="24">
         <f t="shared" si="2"/>
         <v>59.8</v>
       </c>
@@ -4237,7 +4266,7 @@
       <c r="G46" s="19">
         <v>56</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="24">
         <f t="shared" si="2"/>
         <v>66.599999999999994</v>
       </c>
@@ -4272,7 +4301,7 @@
       <c r="G47" s="19">
         <v>38</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="24">
         <f t="shared" si="2"/>
         <v>37.799999999999997</v>
       </c>
@@ -4307,7 +4336,7 @@
       <c r="G48" s="19">
         <v>36</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="24">
         <f t="shared" si="2"/>
         <v>54.599999999999994</v>
       </c>
@@ -4342,7 +4371,7 @@
       <c r="G49" s="19">
         <v>34</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="24">
         <f t="shared" si="2"/>
         <v>35.4</v>
       </c>
@@ -4377,7 +4406,7 @@
       <c r="G50" s="19">
         <v>63</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="24">
         <f t="shared" si="2"/>
         <v>65.8</v>
       </c>
@@ -4412,7 +4441,7 @@
       <c r="G51" s="19">
         <v>45</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="24">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -4447,7 +4476,7 @@
       <c r="G52" s="19">
         <v>96</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="24">
         <f t="shared" si="2"/>
         <v>92.6</v>
       </c>
@@ -4482,7 +4511,7 @@
       <c r="G53" s="19">
         <v>65</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="24">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
@@ -4517,7 +4546,7 @@
       <c r="G54" s="19">
         <v>52</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="24">
         <f t="shared" si="2"/>
         <v>69.2</v>
       </c>
@@ -4552,7 +4581,7 @@
       <c r="G55" s="19">
         <v>49</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="24">
         <f t="shared" si="2"/>
         <v>66.400000000000006</v>
       </c>
@@ -4587,7 +4616,7 @@
       <c r="G56" s="19">
         <v>55</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="24">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
@@ -4622,7 +4651,7 @@
       <c r="G57" s="19">
         <v>4</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="24">
         <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
@@ -4657,7 +4686,7 @@
       <c r="G58" s="19">
         <v>48</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="24">
         <f t="shared" si="2"/>
         <v>66.8</v>
       </c>
@@ -4692,7 +4721,7 @@
       <c r="G59" s="19">
         <v>90</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="24">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -4727,7 +4756,7 @@
       <c r="G60" s="19">
         <v>96</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="24">
         <f t="shared" si="2"/>
         <v>95.6</v>
       </c>
@@ -4762,7 +4791,7 @@
       <c r="G61" s="19">
         <v>16</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="24">
         <f t="shared" si="2"/>
         <v>41.6</v>
       </c>
@@ -4797,7 +4826,7 @@
       <c r="G62" s="19">
         <v>61</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="24">
         <f t="shared" si="2"/>
         <v>74.599999999999994</v>
       </c>
@@ -4832,7 +4861,7 @@
       <c r="G63" s="19">
         <v>73</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="24">
         <f t="shared" si="2"/>
         <v>73.8</v>
       </c>
@@ -4867,7 +4896,7 @@
       <c r="G64" s="19">
         <v>89</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H64" s="24">
         <f t="shared" si="2"/>
         <v>91.4</v>
       </c>
@@ -4902,7 +4931,7 @@
       <c r="G65" s="19">
         <v>64</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H65" s="24">
         <f t="shared" si="2"/>
         <v>76.400000000000006</v>
       </c>
@@ -4937,7 +4966,7 @@
       <c r="G66" s="19">
         <v>57</v>
       </c>
-      <c r="H66" s="20">
+      <c r="H66" s="24">
         <f t="shared" si="2"/>
         <v>64.199999999999989</v>
       </c>
@@ -4972,7 +5001,7 @@
       <c r="G67" s="19">
         <v>44</v>
       </c>
-      <c r="H67" s="20">
+      <c r="H67" s="24">
         <f t="shared" si="2"/>
         <v>61.4</v>
       </c>
@@ -5007,7 +5036,7 @@
       <c r="G68" s="19">
         <v>49</v>
       </c>
-      <c r="H68" s="20">
+      <c r="H68" s="24">
         <f t="shared" si="2"/>
         <v>64.400000000000006</v>
       </c>
@@ -5042,7 +5071,7 @@
       <c r="G69" s="19">
         <v>57</v>
       </c>
-      <c r="H69" s="20">
+      <c r="H69" s="24">
         <f t="shared" si="2"/>
         <v>65.199999999999989</v>
       </c>
@@ -5077,7 +5106,7 @@
       <c r="G70" s="19">
         <v>51</v>
       </c>
-      <c r="H70" s="20">
+      <c r="H70" s="24">
         <f t="shared" si="2"/>
         <v>64.599999999999994</v>
       </c>
@@ -5112,7 +5141,7 @@
       <c r="G71" s="19">
         <v>45</v>
       </c>
-      <c r="H71" s="20">
+      <c r="H71" s="24">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
@@ -5147,7 +5176,7 @@
       <c r="G72" s="19">
         <v>87</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="24">
         <f t="shared" si="2"/>
         <v>86.199999999999989</v>
       </c>
@@ -5182,7 +5211,7 @@
       <c r="G73" s="19">
         <v>68</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="24">
         <f t="shared" si="2"/>
         <v>75.3</v>
       </c>
@@ -5217,7 +5246,7 @@
       <c r="G74" s="19">
         <v>78</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="24">
         <f t="shared" si="2"/>
         <v>84.8</v>
       </c>
@@ -5252,7 +5281,7 @@
       <c r="G75" s="19">
         <v>24</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="24">
         <f t="shared" si="2"/>
         <v>48.4</v>
       </c>
@@ -5287,7 +5316,7 @@
       <c r="G76" s="19">
         <v>86</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="24">
         <f t="shared" si="2"/>
         <v>88.6</v>
       </c>
@@ -5322,7 +5351,7 @@
       <c r="G77" s="19">
         <v>92</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="24">
         <f t="shared" ref="H77:H85" si="4">F77+G77*0.6</f>
         <v>92.199999999999989</v>
       </c>
@@ -5357,7 +5386,7 @@
       <c r="G78" s="19">
         <v>10</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="24">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -5392,7 +5421,7 @@
       <c r="G79" s="19">
         <v>61</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="24">
         <f t="shared" si="4"/>
         <v>73.599999999999994</v>
       </c>
@@ -5427,7 +5456,7 @@
       <c r="G80" s="19">
         <v>62</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="24">
         <f t="shared" si="4"/>
         <v>70.199999999999989</v>
       </c>
@@ -5462,7 +5491,7 @@
       <c r="G81" s="19">
         <v>63</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="24">
         <f t="shared" si="4"/>
         <v>75.8</v>
       </c>
@@ -5497,7 +5526,7 @@
       <c r="G82" s="19">
         <v>94</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="24">
         <f t="shared" si="4"/>
         <v>89.4</v>
       </c>
@@ -5532,7 +5561,7 @@
       <c r="G83" s="19">
         <v>15</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="24">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -5567,7 +5596,7 @@
       <c r="G84" s="19">
         <v>62</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="24">
         <f t="shared" si="4"/>
         <v>71.199999999999989</v>
       </c>
@@ -5602,7 +5631,7 @@
       <c r="G85" s="19">
         <v>66</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="24">
         <f t="shared" si="4"/>
         <v>73.599999999999994</v>
       </c>
